--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema6d</t>
+  </si>
+  <si>
+    <t>Plxna1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema6d</t>
-  </si>
-  <si>
-    <t>Plxna1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H2">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I2">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J2">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8585525</v>
+        <v>12.605715</v>
       </c>
       <c r="N2">
-        <v>13.717105</v>
+        <v>25.21143</v>
       </c>
       <c r="O2">
-        <v>0.07603054156603396</v>
+        <v>0.1117630039729265</v>
       </c>
       <c r="P2">
-        <v>0.05736212983602292</v>
+        <v>0.08569159123379266</v>
       </c>
       <c r="Q2">
-        <v>422.7708398004725</v>
+        <v>776.6696532546449</v>
       </c>
       <c r="R2">
-        <v>1691.08335920189</v>
+        <v>3106.67861301858</v>
       </c>
       <c r="S2">
-        <v>0.03169371527186078</v>
+        <v>0.05442174767066599</v>
       </c>
       <c r="T2">
-        <v>0.02004272238219272</v>
+        <v>0.0397544741465601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H3">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I3">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J3">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>37.2971</v>
       </c>
       <c r="O3">
-        <v>0.1378191055057427</v>
+        <v>0.1102260875451766</v>
       </c>
       <c r="P3">
-        <v>0.1559688500384834</v>
+        <v>0.1267697963743385</v>
       </c>
       <c r="Q3">
-        <v>766.3485985379667</v>
+        <v>765.9892285471</v>
       </c>
       <c r="R3">
-        <v>4598.091591227801</v>
+        <v>4595.9353712826</v>
       </c>
       <c r="S3">
-        <v>0.05745059023587065</v>
+        <v>0.05367336336594412</v>
       </c>
       <c r="T3">
-        <v>0.05449658808916896</v>
+        <v>0.05881168175274733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H4">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I4">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J4">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.947038</v>
+        <v>17.874762</v>
       </c>
       <c r="N4">
-        <v>68.841114</v>
+        <v>53.624286</v>
       </c>
       <c r="O4">
-        <v>0.2543795832249386</v>
+        <v>0.1584786818059203</v>
       </c>
       <c r="P4">
-        <v>0.287879470145082</v>
+        <v>0.1822645679406519</v>
       </c>
       <c r="Q4">
-        <v>1414.487754696542</v>
+        <v>1101.308827349286</v>
       </c>
       <c r="R4">
-        <v>8486.926528179252</v>
+        <v>6607.852964095716</v>
       </c>
       <c r="S4">
-        <v>0.106039414104444</v>
+        <v>0.0771694257118465</v>
       </c>
       <c r="T4">
-        <v>0.1005870653015254</v>
+        <v>0.08455709538946203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H5">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I5">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J5">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.6333055</v>
+        <v>31.5521185</v>
       </c>
       <c r="N5">
-        <v>49.266611</v>
+        <v>63.104237</v>
       </c>
       <c r="O5">
-        <v>0.2730727158138052</v>
+        <v>0.2797429217834727</v>
       </c>
       <c r="P5">
-        <v>0.2060228989107275</v>
+        <v>0.2144861470422096</v>
       </c>
       <c r="Q5">
-        <v>1518.43165934745</v>
+        <v>1944.004995737605</v>
       </c>
       <c r="R5">
-        <v>6073.726637389798</v>
+        <v>7776.019982950421</v>
       </c>
       <c r="S5">
-        <v>0.1138317408406165</v>
+        <v>0.136217694234873</v>
       </c>
       <c r="T5">
-        <v>0.07198581675830884</v>
+        <v>0.09950549248316741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H6">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I6">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J6">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.213392999999999</v>
+        <v>5.88225</v>
       </c>
       <c r="N6">
-        <v>21.640179</v>
+        <v>17.64675</v>
       </c>
       <c r="O6">
-        <v>0.07996412892059052</v>
+        <v>0.05215237137439226</v>
       </c>
       <c r="P6">
-        <v>0.09049480611781979</v>
+        <v>0.05997986181683985</v>
       </c>
       <c r="Q6">
-        <v>444.643708190737</v>
+        <v>362.42014577175</v>
       </c>
       <c r="R6">
-        <v>2667.862249144422</v>
+        <v>2174.5208746305</v>
       </c>
       <c r="S6">
-        <v>0.03333345102862938</v>
+        <v>0.02539501529550486</v>
       </c>
       <c r="T6">
-        <v>0.0316195071772037</v>
+        <v>0.02782615927164026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H7">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I7">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J7">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.123205</v>
+        <v>32.44248166666667</v>
       </c>
       <c r="N7">
-        <v>48.369615</v>
+        <v>97.327445</v>
       </c>
       <c r="O7">
-        <v>0.1787339249688891</v>
+        <v>0.2876369335181116</v>
       </c>
       <c r="P7">
-        <v>0.2022718449518643</v>
+        <v>0.3308080355921674</v>
       </c>
       <c r="Q7">
-        <v>993.8570737958452</v>
+        <v>1998.862499014945</v>
       </c>
       <c r="R7">
-        <v>5963.142442775071</v>
+        <v>11993.17499408967</v>
       </c>
       <c r="S7">
-        <v>0.07450613938434417</v>
+        <v>0.1400615951632685</v>
       </c>
       <c r="T7">
-        <v>0.07067517272620896</v>
+        <v>0.1534701282713138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>37.053596</v>
       </c>
       <c r="I8">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J8">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.8585525</v>
+        <v>12.605715</v>
       </c>
       <c r="N8">
-        <v>13.717105</v>
+        <v>25.21143</v>
       </c>
       <c r="O8">
-        <v>0.07603054156603396</v>
+        <v>0.1117630039729265</v>
       </c>
       <c r="P8">
-        <v>0.05736212983602292</v>
+        <v>0.08569159123379266</v>
       </c>
       <c r="Q8">
-        <v>84.71134449326334</v>
+        <v>155.69569030038</v>
       </c>
       <c r="R8">
-        <v>508.26806695958</v>
+        <v>934.17414180228</v>
       </c>
       <c r="S8">
-        <v>0.00635052605315235</v>
+        <v>0.01090969826802199</v>
       </c>
       <c r="T8">
-        <v>0.006023993853627896</v>
+        <v>0.01195411769116962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>37.053596</v>
       </c>
       <c r="I9">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J9">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>37.2971</v>
       </c>
       <c r="O9">
-        <v>0.1378191055057427</v>
+        <v>0.1102260875451766</v>
       </c>
       <c r="P9">
-        <v>0.1559688500384834</v>
+        <v>0.1267697963743385</v>
       </c>
       <c r="Q9">
         <v>153.5546305968444</v>
@@ -1013,10 +1013,10 @@
         <v>1381.9916753716</v>
       </c>
       <c r="S9">
-        <v>0.01151147686323164</v>
+        <v>0.01075967282226733</v>
       </c>
       <c r="T9">
-        <v>0.016379367305138</v>
+        <v>0.01768459476274541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>37.053596</v>
       </c>
       <c r="I10">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J10">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.947038</v>
+        <v>17.874762</v>
       </c>
       <c r="N10">
-        <v>68.841114</v>
+        <v>53.624286</v>
       </c>
       <c r="O10">
-        <v>0.2543795832249386</v>
+        <v>0.1584786818059203</v>
       </c>
       <c r="P10">
-        <v>0.287879470145082</v>
+        <v>0.1822645679406519</v>
       </c>
       <c r="Q10">
-        <v>283.4234251495494</v>
+        <v>220.774736581384</v>
       </c>
       <c r="R10">
-        <v>2550.810826345944</v>
+        <v>1986.972629232456</v>
       </c>
       <c r="S10">
-        <v>0.0212473058508595</v>
+        <v>0.01546982936173833</v>
       </c>
       <c r="T10">
-        <v>0.03023221354745752</v>
+        <v>0.0254262065241416</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>37.053596</v>
       </c>
       <c r="I11">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J11">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.6333055</v>
+        <v>31.5521185</v>
       </c>
       <c r="N11">
-        <v>49.266611</v>
+        <v>63.104237</v>
       </c>
       <c r="O11">
-        <v>0.2730727158138052</v>
+        <v>0.2797429217834727</v>
       </c>
       <c r="P11">
-        <v>0.2060228989107275</v>
+        <v>0.2144861470422096</v>
       </c>
       <c r="Q11">
-        <v>304.2508500471927</v>
+        <v>389.7064839477086</v>
       </c>
       <c r="R11">
-        <v>1825.505100283156</v>
+        <v>2338.238903686252</v>
       </c>
       <c r="S11">
-        <v>0.02280866820703218</v>
+        <v>0.02730698675575916</v>
       </c>
       <c r="T11">
-        <v>0.02163588904897035</v>
+        <v>0.02992116971982393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>37.053596</v>
       </c>
       <c r="I12">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J12">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.213392999999999</v>
+        <v>5.88225</v>
       </c>
       <c r="N12">
-        <v>21.640179</v>
+        <v>17.64675</v>
       </c>
       <c r="O12">
-        <v>0.07996412892059052</v>
+        <v>0.05215237137439226</v>
       </c>
       <c r="P12">
-        <v>0.09049480611781979</v>
+        <v>0.05997986181683985</v>
       </c>
       <c r="Q12">
-        <v>89.09405000374265</v>
+        <v>72.65283835700001</v>
       </c>
       <c r="R12">
-        <v>801.8464500336838</v>
+        <v>653.875545213</v>
       </c>
       <c r="S12">
-        <v>0.006679082820774032</v>
+        <v>0.00509083162970703</v>
       </c>
       <c r="T12">
-        <v>0.009503485268021746</v>
+        <v>0.00836728921630576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>37.053596</v>
       </c>
       <c r="I13">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J13">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.123205</v>
+        <v>32.44248166666667</v>
       </c>
       <c r="N13">
-        <v>48.369615</v>
+        <v>97.327445</v>
       </c>
       <c r="O13">
-        <v>0.1787339249688891</v>
+        <v>0.2876369335181116</v>
       </c>
       <c r="P13">
-        <v>0.2022718449518643</v>
+        <v>0.3308080355921674</v>
       </c>
       <c r="Q13">
-        <v>199.1409080983934</v>
+        <v>400.7035363046911</v>
       </c>
       <c r="R13">
-        <v>1792.26817288554</v>
+        <v>3606.33182674222</v>
       </c>
       <c r="S13">
-        <v>0.01492892755618861</v>
+        <v>0.02807755736577961</v>
       </c>
       <c r="T13">
-        <v>0.02124196493810813</v>
+        <v>0.04614826418457177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H14">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I14">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J14">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8585525</v>
+        <v>12.605715</v>
       </c>
       <c r="N14">
-        <v>13.717105</v>
+        <v>25.21143</v>
       </c>
       <c r="O14">
-        <v>0.07603054156603396</v>
+        <v>0.1117630039729265</v>
       </c>
       <c r="P14">
-        <v>0.05736212983602292</v>
+        <v>0.08569159123379266</v>
       </c>
       <c r="Q14">
-        <v>3.8192466865975</v>
+        <v>660.0889062316126</v>
       </c>
       <c r="R14">
-        <v>22.915480119585</v>
+        <v>2640.35562492645</v>
       </c>
       <c r="S14">
-        <v>0.0002863161449241551</v>
+        <v>0.04625285891447681</v>
       </c>
       <c r="T14">
-        <v>0.0002715943030202015</v>
+        <v>0.0337871928525216</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H15">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I15">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J15">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>37.2971</v>
       </c>
       <c r="O15">
-        <v>0.1378191055057427</v>
+        <v>0.1102260875451766</v>
       </c>
       <c r="P15">
-        <v>0.1559688500384834</v>
+        <v>0.1267697963743385</v>
       </c>
       <c r="Q15">
-        <v>6.923075269633333</v>
+        <v>651.01164946775</v>
       </c>
       <c r="R15">
-        <v>62.3076774267</v>
+        <v>3906.0698968065</v>
       </c>
       <c r="S15">
-        <v>0.0005189997884077681</v>
+        <v>0.04561680963010648</v>
       </c>
       <c r="T15">
-        <v>0.0007384706816179332</v>
+        <v>0.04998384901371256</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H16">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I16">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J16">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.947038</v>
+        <v>17.874762</v>
       </c>
       <c r="N16">
-        <v>68.841114</v>
+        <v>53.624286</v>
       </c>
       <c r="O16">
-        <v>0.2543795832249386</v>
+        <v>0.1584786818059203</v>
       </c>
       <c r="P16">
-        <v>0.287879470145082</v>
+        <v>0.1822645679406519</v>
       </c>
       <c r="Q16">
-        <v>12.778264633642</v>
+        <v>935.998640119215</v>
       </c>
       <c r="R16">
-        <v>115.004381702778</v>
+        <v>5615.99184071529</v>
       </c>
       <c r="S16">
-        <v>0.0009579437436088876</v>
+        <v>0.0655860333916681</v>
       </c>
       <c r="T16">
-        <v>0.001363032095763956</v>
+        <v>0.07186478881446924</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H17">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I17">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J17">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.6333055</v>
+        <v>31.5521185</v>
       </c>
       <c r="N17">
-        <v>49.266611</v>
+        <v>63.104237</v>
       </c>
       <c r="O17">
-        <v>0.2730727158138052</v>
+        <v>0.2797429217834727</v>
       </c>
       <c r="P17">
-        <v>0.2060228989107275</v>
+        <v>0.2144861470422096</v>
       </c>
       <c r="Q17">
-        <v>13.7172778674245</v>
+        <v>1652.203257804514</v>
       </c>
       <c r="R17">
-        <v>82.303667204547</v>
+        <v>6608.813031218055</v>
       </c>
       <c r="S17">
-        <v>0.001028338423814498</v>
+        <v>0.1157709566996679</v>
       </c>
       <c r="T17">
-        <v>0.0009754631809490702</v>
+        <v>0.08456938084552242</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H18">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I18">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J18">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.213392999999999</v>
+        <v>5.88225</v>
       </c>
       <c r="N18">
-        <v>21.640179</v>
+        <v>17.64675</v>
       </c>
       <c r="O18">
-        <v>0.07996412892059052</v>
+        <v>0.05215237137439226</v>
       </c>
       <c r="P18">
-        <v>0.09049480611781979</v>
+        <v>0.05997986181683985</v>
       </c>
       <c r="Q18">
-        <v>4.016842812586999</v>
+        <v>308.019653679375</v>
       </c>
       <c r="R18">
-        <v>36.15158531328299</v>
+        <v>1848.11792207625</v>
       </c>
       <c r="S18">
-        <v>0.000301129265334469</v>
+        <v>0.02158313743803356</v>
       </c>
       <c r="T18">
-        <v>0.0004284686406306142</v>
+        <v>0.02364935846440426</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H19">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I19">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J19">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.123205</v>
+        <v>32.44248166666667</v>
       </c>
       <c r="N19">
-        <v>48.369615</v>
+        <v>97.327445</v>
       </c>
       <c r="O19">
-        <v>0.1787339249688891</v>
+        <v>0.2876369335181116</v>
       </c>
       <c r="P19">
-        <v>0.2022718449518643</v>
+        <v>0.3308080355921674</v>
       </c>
       <c r="Q19">
-        <v>8.978351813095001</v>
+        <v>1698.826463932362</v>
       </c>
       <c r="R19">
-        <v>80.805166317855</v>
+        <v>10192.95878359417</v>
       </c>
       <c r="S19">
-        <v>0.0006730769939315713</v>
+        <v>0.1190378750720474</v>
       </c>
       <c r="T19">
-        <v>0.0009577029463053966</v>
+        <v>0.1304337419201604</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H20">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I20">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J20">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.8585525</v>
+        <v>12.605715</v>
       </c>
       <c r="N20">
-        <v>13.717105</v>
+        <v>25.21143</v>
       </c>
       <c r="O20">
-        <v>0.07603054156603396</v>
+        <v>0.1117630039729265</v>
       </c>
       <c r="P20">
-        <v>0.05736212983602292</v>
+        <v>0.08569159123379266</v>
       </c>
       <c r="Q20">
-        <v>199.8692792659062</v>
+        <v>2.23232085792</v>
       </c>
       <c r="R20">
-        <v>799.477117063625</v>
+        <v>13.39392514752</v>
       </c>
       <c r="S20">
-        <v>0.01498353110549272</v>
+        <v>0.000156420174189367</v>
       </c>
       <c r="T20">
-        <v>0.009475403930285517</v>
+        <v>0.0001713947650609009</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H21">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I21">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J21">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>37.2971</v>
       </c>
       <c r="O21">
-        <v>0.1378191055057427</v>
+        <v>0.1102260875451766</v>
       </c>
       <c r="P21">
-        <v>0.1559688500384834</v>
+        <v>0.1267697963743385</v>
       </c>
       <c r="Q21">
-        <v>362.2992118579167</v>
+        <v>2.201622948266666</v>
       </c>
       <c r="R21">
-        <v>2173.7952711475</v>
+        <v>19.8146065344</v>
       </c>
       <c r="S21">
-        <v>0.02716035966260969</v>
+        <v>0.0001542691516971533</v>
       </c>
       <c r="T21">
-        <v>0.02576382465019054</v>
+        <v>0.0002535567277204397</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H22">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I22">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J22">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.947038</v>
+        <v>17.874762</v>
       </c>
       <c r="N22">
-        <v>68.841114</v>
+        <v>53.624286</v>
       </c>
       <c r="O22">
-        <v>0.2543795832249386</v>
+        <v>0.1584786818059203</v>
       </c>
       <c r="P22">
-        <v>0.287879470145082</v>
+        <v>0.1822645679406519</v>
       </c>
       <c r="Q22">
-        <v>668.7136894187751</v>
+        <v>3.165405853056</v>
       </c>
       <c r="R22">
-        <v>4012.282136512651</v>
+        <v>28.488652677504</v>
       </c>
       <c r="S22">
-        <v>0.05013122778486036</v>
+        <v>0.0002218020465823223</v>
       </c>
       <c r="T22">
-        <v>0.04755357359740509</v>
+        <v>0.0003645537718617531</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H23">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I23">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J23">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.6333055</v>
+        <v>31.5521185</v>
       </c>
       <c r="N23">
-        <v>49.266611</v>
+        <v>63.104237</v>
       </c>
       <c r="O23">
-        <v>0.2730727158138052</v>
+        <v>0.2797429217834727</v>
       </c>
       <c r="P23">
-        <v>0.2060228989107275</v>
+        <v>0.2144861470422096</v>
       </c>
       <c r="Q23">
-        <v>717.8542434751188</v>
+        <v>5.587501560928</v>
       </c>
       <c r="R23">
-        <v>2871.416973900475</v>
+        <v>33.525009365568</v>
       </c>
       <c r="S23">
-        <v>0.05381513069854825</v>
+        <v>0.0003915198679181269</v>
       </c>
       <c r="T23">
-        <v>0.03403203806497419</v>
+        <v>0.0004290012853282186</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H24">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I24">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J24">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.213392999999999</v>
+        <v>5.88225</v>
       </c>
       <c r="N24">
-        <v>21.640179</v>
+        <v>17.64675</v>
       </c>
       <c r="O24">
-        <v>0.07996412892059052</v>
+        <v>0.05215237137439226</v>
       </c>
       <c r="P24">
-        <v>0.09049480611781979</v>
+        <v>0.05997986181683985</v>
       </c>
       <c r="Q24">
-        <v>210.2099036162125</v>
+        <v>1.041675888</v>
       </c>
       <c r="R24">
-        <v>1261.259421697275</v>
+        <v>9.375082991999999</v>
       </c>
       <c r="S24">
-        <v>0.01575873311338558</v>
+        <v>7.299090687243082E-05</v>
       </c>
       <c r="T24">
-        <v>0.01494844846260797</v>
+        <v>0.0001199678308742683</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H25">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I25">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J25">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.123205</v>
+        <v>32.44248166666667</v>
       </c>
       <c r="N25">
-        <v>48.369615</v>
+        <v>97.327445</v>
       </c>
       <c r="O25">
-        <v>0.1787339249688891</v>
+        <v>0.2876369335181116</v>
       </c>
       <c r="P25">
-        <v>0.2022718449518643</v>
+        <v>0.3308080355921674</v>
       </c>
       <c r="Q25">
-        <v>469.8561923680626</v>
+        <v>5.745174193386666</v>
       </c>
       <c r="R25">
-        <v>2819.137154208375</v>
+        <v>51.70656774048</v>
       </c>
       <c r="S25">
-        <v>0.0352235466066252</v>
+        <v>0.0004025680918087825</v>
       </c>
       <c r="T25">
-        <v>0.03341241756751132</v>
+        <v>0.0006616607851975375</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H26">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I26">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J26">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.8585525</v>
+        <v>12.605715</v>
       </c>
       <c r="N26">
-        <v>13.717105</v>
+        <v>25.21143</v>
       </c>
       <c r="O26">
-        <v>0.07603054156603396</v>
+        <v>0.1117630039729265</v>
       </c>
       <c r="P26">
-        <v>0.05736212983602292</v>
+        <v>0.08569159123379266</v>
       </c>
       <c r="Q26">
-        <v>296.5505479456492</v>
+        <v>0.31794974754</v>
       </c>
       <c r="R26">
-        <v>1779.303287673895</v>
+        <v>1.90769848524</v>
       </c>
       <c r="S26">
-        <v>0.02223140232363112</v>
+        <v>2.227894557237273E-05</v>
       </c>
       <c r="T26">
-        <v>0.02108830510011135</v>
+        <v>2.441177848043204E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H27">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I27">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J27">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>37.2971</v>
       </c>
       <c r="O27">
-        <v>0.1378191055057427</v>
+        <v>0.1102260875451766</v>
       </c>
       <c r="P27">
-        <v>0.1559688500384834</v>
+        <v>0.1267697963743385</v>
       </c>
       <c r="Q27">
-        <v>537.5514946136556</v>
+        <v>0.3135774403111111</v>
       </c>
       <c r="R27">
-        <v>4837.9634515229</v>
+        <v>2.8221969628</v>
       </c>
       <c r="S27">
-        <v>0.04029843690801629</v>
+        <v>2.197257516153964E-05</v>
       </c>
       <c r="T27">
-        <v>0.05733954971908163</v>
+        <v>3.611411741271804E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H28">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I28">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J28">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.947038</v>
+        <v>17.874762</v>
       </c>
       <c r="N28">
-        <v>68.841114</v>
+        <v>53.624286</v>
       </c>
       <c r="O28">
-        <v>0.2543795832249386</v>
+        <v>0.1584786818059203</v>
       </c>
       <c r="P28">
-        <v>0.287879470145082</v>
+        <v>0.1822645679406519</v>
       </c>
       <c r="Q28">
-        <v>992.1855511975208</v>
+        <v>0.450849163672</v>
       </c>
       <c r="R28">
-        <v>8929.669960777686</v>
+        <v>4.057642473047999</v>
       </c>
       <c r="S28">
-        <v>0.07438083092804955</v>
+        <v>3.159129408503336E-05</v>
       </c>
       <c r="T28">
-        <v>0.1058344610953658</v>
+        <v>5.192344071729899E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H29">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I29">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J29">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.6333055</v>
+        <v>31.5521185</v>
       </c>
       <c r="N29">
-        <v>49.266611</v>
+        <v>63.104237</v>
       </c>
       <c r="O29">
-        <v>0.2730727158138052</v>
+        <v>0.2797429217834727</v>
       </c>
       <c r="P29">
-        <v>0.2060228989107275</v>
+        <v>0.2144861470422096</v>
       </c>
       <c r="Q29">
-        <v>1065.096497218265</v>
+        <v>0.7958285675526666</v>
       </c>
       <c r="R29">
-        <v>6390.578983309589</v>
+        <v>4.774971405316</v>
       </c>
       <c r="S29">
-        <v>0.07984672059175972</v>
+        <v>5.576422525454167E-05</v>
       </c>
       <c r="T29">
-        <v>0.0757411512135033</v>
+        <v>6.11027083676207E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H30">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I30">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J30">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.213392999999999</v>
+        <v>5.88225</v>
       </c>
       <c r="N30">
-        <v>21.640179</v>
+        <v>17.64675</v>
       </c>
       <c r="O30">
-        <v>0.07996412892059052</v>
+        <v>0.05215237137439226</v>
       </c>
       <c r="P30">
-        <v>0.09049480611781979</v>
+        <v>0.05997986181683985</v>
       </c>
       <c r="Q30">
-        <v>311.8931650224023</v>
+        <v>0.148366031</v>
       </c>
       <c r="R30">
-        <v>2807.03848520162</v>
+        <v>1.335294279</v>
       </c>
       <c r="S30">
-        <v>0.02338158698959648</v>
+        <v>1.039610427437789E-05</v>
       </c>
       <c r="T30">
-        <v>0.03326902412520882</v>
+        <v>1.708703361529132E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H31">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I31">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J31">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.123205</v>
+        <v>32.44248166666667</v>
       </c>
       <c r="N31">
-        <v>48.369615</v>
+        <v>97.327445</v>
       </c>
       <c r="O31">
-        <v>0.1787339249688891</v>
+        <v>0.2876369335181116</v>
       </c>
       <c r="P31">
-        <v>0.2022718449518643</v>
+        <v>0.3308080355921674</v>
       </c>
       <c r="Q31">
-        <v>697.1362072959319</v>
+        <v>0.8182859009177778</v>
       </c>
       <c r="R31">
-        <v>6274.225865663386</v>
+        <v>7.36457310826</v>
       </c>
       <c r="S31">
-        <v>0.05226196884858442</v>
+        <v>5.733782520740528E-05</v>
       </c>
       <c r="T31">
-        <v>0.0743621338974166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H32">
-        <v>2.830139</v>
-      </c>
-      <c r="I32">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J32">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>6.8585525</v>
-      </c>
-      <c r="N32">
-        <v>13.717105</v>
-      </c>
-      <c r="O32">
-        <v>0.07603054156603396</v>
-      </c>
-      <c r="P32">
-        <v>0.05736212983602292</v>
-      </c>
-      <c r="Q32">
-        <v>6.470218971265833</v>
-      </c>
-      <c r="R32">
-        <v>38.821313827595</v>
-      </c>
-      <c r="S32">
-        <v>0.0004850506669728504</v>
-      </c>
-      <c r="T32">
-        <v>0.0004601102667852426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H33">
-        <v>2.830139</v>
-      </c>
-      <c r="I33">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J33">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>12.43236666666667</v>
-      </c>
-      <c r="N33">
-        <v>37.2971</v>
-      </c>
-      <c r="O33">
-        <v>0.1378191055057427</v>
-      </c>
-      <c r="P33">
-        <v>0.1559688500384834</v>
-      </c>
-      <c r="Q33">
-        <v>11.72844192187778</v>
-      </c>
-      <c r="R33">
-        <v>105.5559772969</v>
-      </c>
-      <c r="S33">
-        <v>0.0008792420476066487</v>
-      </c>
-      <c r="T33">
-        <v>0.001251049593286329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H34">
-        <v>2.830139</v>
-      </c>
-      <c r="I34">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J34">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>22.947038</v>
-      </c>
-      <c r="N34">
-        <v>68.841114</v>
-      </c>
-      <c r="O34">
-        <v>0.2543795832249386</v>
-      </c>
-      <c r="P34">
-        <v>0.287879470145082</v>
-      </c>
-      <c r="Q34">
-        <v>21.64776905942734</v>
-      </c>
-      <c r="R34">
-        <v>194.829921534846</v>
-      </c>
-      <c r="S34">
-        <v>0.001622860813116374</v>
-      </c>
-      <c r="T34">
-        <v>0.002309124507564337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H35">
-        <v>2.830139</v>
-      </c>
-      <c r="I35">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J35">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>24.6333055</v>
-      </c>
-      <c r="N35">
-        <v>49.266611</v>
-      </c>
-      <c r="O35">
-        <v>0.2730727158138052</v>
-      </c>
-      <c r="P35">
-        <v>0.2060228989107275</v>
-      </c>
-      <c r="Q35">
-        <v>23.23855953148816</v>
-      </c>
-      <c r="R35">
-        <v>139.431357188929</v>
-      </c>
-      <c r="S35">
-        <v>0.001742117052034082</v>
-      </c>
-      <c r="T35">
-        <v>0.001652540644021808</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H36">
-        <v>2.830139</v>
-      </c>
-      <c r="I36">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J36">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>7.213392999999999</v>
-      </c>
-      <c r="N36">
-        <v>21.640179</v>
-      </c>
-      <c r="O36">
-        <v>0.07996412892059052</v>
-      </c>
-      <c r="P36">
-        <v>0.09049480611781979</v>
-      </c>
-      <c r="Q36">
-        <v>6.804968283875666</v>
-      </c>
-      <c r="R36">
-        <v>61.24471455488099</v>
-      </c>
-      <c r="S36">
-        <v>0.0005101457028705823</v>
-      </c>
-      <c r="T36">
-        <v>0.0007258724441469539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.9433796666666666</v>
-      </c>
-      <c r="H37">
-        <v>2.830139</v>
-      </c>
-      <c r="I37">
-        <v>0.006379681861815685</v>
-      </c>
-      <c r="J37">
-        <v>0.008021150332118549</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>16.123205</v>
-      </c>
-      <c r="N37">
-        <v>48.369615</v>
-      </c>
-      <c r="O37">
-        <v>0.1787339249688891</v>
-      </c>
-      <c r="P37">
-        <v>0.2022718449518643</v>
-      </c>
-      <c r="Q37">
-        <v>15.21030375849833</v>
-      </c>
-      <c r="R37">
-        <v>136.892733826485</v>
-      </c>
-      <c r="S37">
-        <v>0.001140265579215147</v>
-      </c>
-      <c r="T37">
-        <v>0.001622452876313878</v>
+        <v>9.424043092384816E-05</v>
       </c>
     </row>
   </sheetData>
